--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2824948.166986062</v>
+        <v>2900477.836650866</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9047458.492055897</v>
+        <v>9047458.492055899</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>172.0605432780341</v>
+        <v>192.7528939571058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>21.1615408698085</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -899,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>177.8809333150158</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>311.4936872159399</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>151.2725262699913</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>99.67868129518061</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>160.0577614494585</v>
+        <v>83.16754788496765</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>15.90252802695406</v>
       </c>
       <c r="I10" t="n">
-        <v>6.621576176023814</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>121.6037581682501</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>101.6183307069784</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,19 +1660,19 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>164.583616708604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>147.0998426189499</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051981</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>17.85500287309136</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2056,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>31.13654107019724</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2241,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -2257,7 +2259,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>37.21818297714938</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>223.5247152291806</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>96.83234026623559</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2725,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>118.4898845065121</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>38.02006127926965</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>76.77273444942715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>230.2849852984814</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>204.1291651532057</v>
+        <v>39.69425409728719</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896923</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3317,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>5.10773133594585</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>151.4314355753212</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3718,10 +3720,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>178.6007419141334</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>131.7805068304667</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>55.43878055348011</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>76.27978370493997</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>613.8540740622839</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.981643776797</v>
+        <v>255.5883754555334</v>
       </c>
       <c r="E2" t="n">
-        <v>792.1933911785532</v>
+        <v>255.5883754555334</v>
       </c>
       <c r="F2" t="n">
-        <v>381.2074863889456</v>
+        <v>248.6428747063299</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4363,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>2469.840903686824</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>2180.667293341392</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>2180.667293341392</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1156.75737613363</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2286.265203443678</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2286.265203443678</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2286.265203443678</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1933.496548173563</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.509002921313</v>
+        <v>1933.496548173563</v>
       </c>
       <c r="Y5" t="n">
-        <v>2382.509002921313</v>
+        <v>1543.357216197752</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>500.820796875036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X7" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.820796875036</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1430.355453824634</v>
+        <v>1271.835978902613</v>
       </c>
       <c r="C8" t="n">
-        <v>1430.355453824634</v>
+        <v>902.8734619622016</v>
       </c>
       <c r="D8" t="n">
-        <v>1430.355453824634</v>
+        <v>544.6077633554512</v>
       </c>
       <c r="E8" t="n">
-        <v>1044.56720122639</v>
+        <v>158.819510757207</v>
       </c>
       <c r="F8" t="n">
-        <v>633.5812964367822</v>
+        <v>151.8740100080035</v>
       </c>
       <c r="G8" t="n">
-        <v>215.617488334969</v>
+        <v>137.9506059465944</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888756</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.955293888756</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1816.955293888756</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>217.9192350259435</v>
       </c>
       <c r="E10" t="n">
-        <v>229.6312428658945</v>
+        <v>70.00614144355038</v>
       </c>
       <c r="F10" t="n">
-        <v>229.6312428658945</v>
+        <v>70.00614144355038</v>
       </c>
       <c r="G10" t="n">
-        <v>60.63144260422689</v>
+        <v>70.00614144355038</v>
       </c>
       <c r="H10" t="n">
-        <v>60.63144260422689</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4999,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5108,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.4909633328887</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>861.4909633328887</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>861.4909633328887</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>861.4909633328887</v>
+        <v>874.6385818722738</v>
       </c>
       <c r="X13" t="n">
-        <v>861.4909633328887</v>
+        <v>646.6490309742564</v>
       </c>
       <c r="Y13" t="n">
-        <v>861.4909633328887</v>
+        <v>646.6490309742564</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,25 +5266,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619851</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.8811773957809</v>
+        <v>566.6879222525852</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D16" t="n">
         <v>247.6350999123426</v>
@@ -5428,22 +5430,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>1015.470052294133</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267568</v>
+        <v>1015.470052294133</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3222213695508</v>
+        <v>787.4805013961153</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.5296422260207</v>
+        <v>566.6879222525852</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5510,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5537,28 +5539,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K18" t="n">
-        <v>485.520085263587</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3690873100876</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V19" t="n">
-        <v>675.0071030383447</v>
+        <v>820.5263570570741</v>
       </c>
       <c r="W19" t="n">
-        <v>675.0071030383447</v>
+        <v>531.1091870201135</v>
       </c>
       <c r="X19" t="n">
-        <v>447.0175521403273</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.0175521403273</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,31 +5767,31 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507007</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>882.7763375151577</v>
+        <v>4186.289902337211</v>
       </c>
       <c r="C22" t="n">
-        <v>713.8401545872508</v>
+        <v>4186.289902337211</v>
       </c>
       <c r="D22" t="n">
-        <v>563.7235151749151</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="E22" t="n">
-        <v>415.8104215925219</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925219</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R22" t="n">
-        <v>1461.32214633856</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S22" t="n">
-        <v>1461.32214633856</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T22" t="n">
-        <v>1461.32214633856</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.193507552118</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="V22" t="n">
-        <v>1172.193507552118</v>
+        <v>4635.072032378758</v>
       </c>
       <c r="W22" t="n">
-        <v>882.7763375151577</v>
+        <v>4635.072032378758</v>
       </c>
       <c r="X22" t="n">
-        <v>882.7763375151577</v>
+        <v>4407.082481480741</v>
       </c>
       <c r="Y22" t="n">
-        <v>882.7763375151577</v>
+        <v>4186.289902337211</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,16 +6056,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6072,16 +6074,16 @@
         <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1470.815640507007</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947357</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>577.1966583249754</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>577.1966583249754</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>577.1966583249754</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>577.1966583249754</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823761</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514058</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263797</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2577.031280742778</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L27" t="n">
-        <v>3190.928350499667</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M27" t="n">
-        <v>3959.296496892128</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556161</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774858</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557068</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>216.9038434870658</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>216.9038434870658</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>216.9038434870658</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>216.9038434870658</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>216.9038434870658</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>216.9038434870658</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>636.6030007360521</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.9038434870658</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,22 +6454,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6485,7 +6487,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.3586382081049</v>
+        <v>528.105874218302</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>675.0071030383447</v>
+        <v>1266.30517429681</v>
       </c>
       <c r="W31" t="n">
-        <v>675.0071030383447</v>
+        <v>976.8880042598495</v>
       </c>
       <c r="X31" t="n">
-        <v>675.0071030383447</v>
+        <v>748.8984533618321</v>
       </c>
       <c r="Y31" t="n">
-        <v>675.0071030383447</v>
+        <v>528.105874218302</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507007</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>4018.11458065703</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>4018.11458065703</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>4420.5556246308</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028589</v>
+        <v>4420.5556246308</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>4199.76304548727</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6916,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014294</v>
@@ -6968,13 +6970,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7017,19 +7019,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507007</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>3926.121309839312</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>3757.185126911405</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>3607.06848749907</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S37" t="n">
-        <v>1493.756945976139</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="T37" t="n">
-        <v>1269.971530765645</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="U37" t="n">
-        <v>980.8428919792033</v>
+        <v>4260.73082070523</v>
       </c>
       <c r="V37" t="n">
-        <v>726.1584037733164</v>
+        <v>4107.769774669552</v>
       </c>
       <c r="W37" t="n">
-        <v>436.7412337363558</v>
+        <v>4107.769774669552</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7516828383384</v>
+        <v>4107.769774669552</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>4107.769774669552</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7166,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028589</v>
@@ -7187,7 +7189,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7256,19 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>1099.417155020476</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M39" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
         <v>2536.440602918915</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028589</v>
@@ -7333,13 +7335,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>605.6774166642626</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>605.6774166642626</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7424,37 +7426,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.9892362638</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2722.801152901743</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>3336.698222658632</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M42" t="n">
-        <v>3644.018355938594</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N42" t="n">
-        <v>3973.880983602627</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>4253.421048821324</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557071</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028589</v>
+        <v>563.1598612984388</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028589</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028589</v>
+        <v>965.6009052722087</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028589</v>
+        <v>744.8083261286786</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>485.520085263587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.417155020476</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>321.3911813763037</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1421.865983987256</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1421.865983987256</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.181495781369</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>877.7643257444088</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X46" t="n">
-        <v>649.7747748463914</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.9821957028613</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8301,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>253.7371603504727</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>96.03744927814625</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>253.7371603504743</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>199.7396287231148</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>230.7151863772027</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>91.23759968302011</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>230.7151863772031</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720712</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,19 +9956,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>52.49733361305081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>230.7151863772031</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>28.12263706263059</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,25 +10433,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>253.7371603504737</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298383</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714844</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10904,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>180.0237016735865</v>
+        <v>283.6093329825489</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.7164198729829</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>199.7396287231142</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>392.1113620226434</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>199.7396287231147</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>127.6461250100645</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>58.22822201368724</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>184.619021691599</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>2.663204390023878</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>105.0378007048781</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23890,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>149.3918182255365</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>194.5731143188399</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,16 +24129,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>72.74616942664341</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24183,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>28.61292809464743</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>155.3053030575924</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24613,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>30.423943861024</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>248.5029370573213</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>90.47408664920069</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>21.85265802534656</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>82.39383318338525</v>
+        <v>246.8287442393038</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>192.8130786476574</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>100.7062077485068</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>73.53690140969456</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>93.92914855857046</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>89.98226746945113</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>145.2677773534493</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914266</v>
@@ -26323,37 +26325,37 @@
         <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="H2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="K2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="I2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>625646.4955803341</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.898095428667148e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26426,37 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230235</v>
+      </c>
+      <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230229</v>
-      </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230225</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="J4" t="n">
-        <v>29303.54555230229</v>
-      </c>
       <c r="K4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="L4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="M4" t="n">
+        <v>29303.54555230225</v>
+      </c>
+      <c r="N4" t="n">
+        <v>29303.54555230228</v>
+      </c>
+      <c r="O4" t="n">
         <v>29303.54555230232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230226</v>
-      </c>
-      <c r="M4" t="n">
-        <v>29303.54555230229</v>
-      </c>
-      <c r="N4" t="n">
-        <v>29303.54555230226</v>
-      </c>
-      <c r="O4" t="n">
-        <v>29303.54555230226</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230232</v>
@@ -26479,25 +26481,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871667</v>
@@ -26506,10 +26508,10 @@
         <v>91987.32594871667</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083533</v>
+        <v>-190484.3187083537</v>
       </c>
       <c r="C6" t="n">
         <v>399483.560506191</v>
@@ -26528,40 +26530,40 @@
         <v>399483.560506191</v>
       </c>
       <c r="E6" t="n">
-        <v>-20804.41239758101</v>
+        <v>-20804.41239758115</v>
       </c>
       <c r="F6" t="n">
-        <v>504355.6240793155</v>
+        <v>504355.6240793157</v>
       </c>
       <c r="G6" t="n">
-        <v>504355.6240793153</v>
+        <v>504355.6240793146</v>
       </c>
       <c r="H6" t="n">
         <v>504355.6240793152</v>
       </c>
       <c r="I6" t="n">
-        <v>504355.6240793153</v>
+        <v>504355.6240793152</v>
       </c>
       <c r="J6" t="n">
-        <v>327932.4048867226</v>
+        <v>327932.4048867222</v>
       </c>
       <c r="K6" t="n">
+        <v>504355.6240793155</v>
+      </c>
+      <c r="L6" t="n">
         <v>504355.6240793152</v>
       </c>
-      <c r="L6" t="n">
-        <v>504355.6240793153</v>
-      </c>
       <c r="M6" t="n">
-        <v>369554.6088454781</v>
+        <v>369554.608845478</v>
       </c>
       <c r="N6" t="n">
-        <v>504355.6240793153</v>
+        <v>504355.6240793155</v>
       </c>
       <c r="O6" t="n">
         <v>504355.6240793155</v>
       </c>
       <c r="P6" t="n">
-        <v>504355.6240793154</v>
+        <v>504355.6240793151</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26802,13 +26804,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253574</v>
@@ -26826,10 +26828,10 @@
         <v>1215.213643253574</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>241.7236267427609</v>
+        <v>221.0312760636892</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27433,16 +27435,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>146.0852802288193</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>112.8342462400173</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>38.56738704264203</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>58.2374134625291</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>16.03727598905957</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>186.8443170414104</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>163.8650113148986</v>
+        <v>240.7552248793895</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>140.2683608148411</v>
       </c>
       <c r="I10" t="n">
-        <v>128.3440456163144</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.169471064289421e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-1.620037437533028e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34362,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34371,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34535,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,13 +35023,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>460.8305752819975</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2951542341706</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>460.8305752819989</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>350.3150673110541</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>479.9728913332272</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>401.6619767334865</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>479.9728913332275</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504664</v>
@@ -36449,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507416</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415054</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36601,7 +36603,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N26" t="n">
         <v>803.580930408112</v>
@@ -36674,19 +36676,19 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>203.0727722009901</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>479.9728913332275</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315248</v>
@@ -36832,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>235.2160519941552</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>460.8305752819984</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109142</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>429.2814066296109</v>
+        <v>532.8670379385733</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>350.3150673110534</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>702.5357390731098</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38022,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>350.315067311054</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>460.8406984080775</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900477.836650866</v>
+        <v>2893460.821759155</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -667,13 +667,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>192.7528939571058</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>167.2931083881471</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>21.1615408698085</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>191.9978963829636</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>359.1105101648723</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -949,19 +949,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>177.8809333150158</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>99.67868129518061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>60.46179076613115</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>83.16754788496765</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>15.90252802695406</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113179</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.6037581682501</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>121.8522523094039</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5.562624396424917</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>147.0998426189499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>31.13654107019724</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>223.5247152291806</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>137.93704299063</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>96.83234026623559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>122.65197883716</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,10 +2772,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>38.02006127926965</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>230.2849852984814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>39.69425409728719</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>151.4314355753212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,16 +3720,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>178.6007419141334</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="41">
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>131.7805068304667</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>55.43878055348011</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.995544662309</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>982.8165910026955</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>613.8540740622839</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5883754555334</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5883754555334</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>248.6428747063299</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2528.166153252417</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2309.53148622448</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2309.53148622448</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2180.667293341392</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="C4" t="n">
-        <v>2159.291999533505</v>
+        <v>386.0450565669176</v>
       </c>
       <c r="D4" t="n">
-        <v>2159.291999533505</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>2159.291999533505</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>2159.291999533505</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>2159.291999533505</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>2159.291999533505</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.840903686824</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>2180.667293341392</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>2180.667293341392</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>2180.667293341392</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>2180.667293341392</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>2180.667293341392</v>
+        <v>386.0450565669176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.75737613363</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
         <v>402.0066065949742</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2286.265203443678</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2286.265203443678</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2286.265203443678</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1933.496548173563</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1933.496548173563</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1543.357216197752</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="6">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.835978902613</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>902.8734619622016</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>544.6077633554512</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>158.819510757207</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>151.8740100080035</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>137.9506059465944</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1658.435818966735</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>217.9192350259435</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>217.9192350259435</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>217.9192350259435</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>70.00614144355038</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>70.00614144355038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259435</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,13 +5108,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
@@ -5123,19 +5123,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507007</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1800.67826817104</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.218333389737</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>523.8169520164281</v>
+        <v>854.4182661194303</v>
       </c>
       <c r="C13" t="n">
-        <v>523.8169520164281</v>
+        <v>685.4820831915234</v>
       </c>
       <c r="D13" t="n">
-        <v>523.8169520164281</v>
+        <v>535.3654437791877</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119729</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>874.6385818722738</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="X13" t="n">
-        <v>646.6490309742564</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="Y13" t="n">
-        <v>646.6490309742564</v>
+        <v>854.4182661194303</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,25 +5263,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,13 +5290,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>462.7283310300498</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.6879222525852</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.470052294133</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W16" t="n">
-        <v>1015.470052294133</v>
+        <v>330.8254548799445</v>
       </c>
       <c r="X16" t="n">
-        <v>787.4805013961153</v>
+        <v>102.8359039819272</v>
       </c>
       <c r="Y16" t="n">
-        <v>566.6879222525852</v>
+        <v>102.8359039819272</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,28 +5530,28 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5591,22 +5591,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>820.5263570570741</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>531.1091870201135</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905256</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277036</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>932.1883377003194</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4186.289902337211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4186.289902337211</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014294</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014294</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014294</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4635.072032378758</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4635.072032378758</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4407.082481480741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4186.289902337211</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.5481934947357</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C25" t="n">
-        <v>395.5481934947357</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>395.5481934947357</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1359.585924102721</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>1359.585924102721</v>
       </c>
       <c r="V25" t="n">
-        <v>577.1966583249754</v>
+        <v>1104.901435896834</v>
       </c>
       <c r="W25" t="n">
-        <v>577.1966583249754</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="X25" t="n">
-        <v>577.1966583249754</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y25" t="n">
-        <v>577.1966583249754</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="26">
@@ -6217,13 +6217,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6250,7 +6250,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,28 +6302,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415.8104215925219</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925219</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383447</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>636.6030007360521</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>636.6030007360521</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>415.8104215925219</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2292.946699347401</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1266.30517429681</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>976.8880042598495</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>748.8984533618321</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>528.105874218302</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2187.63534213943</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4018.11458065703</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>4018.11458065703</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4460.650830789676</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4460.650830789676</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4420.5556246308</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>4420.5556246308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>4199.76304548727</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,7 +6934,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6961,10 +6961,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3926.121309839312</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>3757.185126911405</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>3607.06848749907</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491672</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.859459491672</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.73082070523</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>4107.769774669552</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>4107.769774669552</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>4107.769774669552</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>4107.769774669552</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7180,7 +7180,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L39" t="n">
-        <v>940.1463453738957</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>605.6774166642626</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>605.6774166642626</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>377.6878657662453</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,22 +7493,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>563.1598612984388</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>394.223678370532</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>244.1070389581962</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>1098.712528333286</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.712528333286</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>965.6009052722087</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.8083261286786</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>321.3911813763037</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>321.3911813763037</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>321.3911813763037</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>321.3911813763037</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
         <v>265.3924131404652</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X46" t="n">
-        <v>503.0396462065435</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y46" t="n">
-        <v>503.0396462065435</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>253.7371603504727</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9008,10 +9008,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>176.717654749845</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>230.7151863772027</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.23759968302011</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>230.7151863772031</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>230.7151863772031</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>28.12263706263059</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>145.2351313103796</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298383</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714844</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L39" t="n">
-        <v>283.6093329825489</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>392.1113620226434</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,25 +11381,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>127.6461250100645</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.22822201368724</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>24.58171033716525</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>160.9309440669527</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>105.0378007048781</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>194.5731143188399</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>28.61292809464743</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>83.61051806775924</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>155.3053030575924</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>43.84158962621761</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>248.5029370573213</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>21.85265802534656</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.8287442393038</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>100.7062077485068</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>73.53690140969456</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25842,16 +25842,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>93.92914855857046</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>89.98226746945113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.142098661519</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771470.9653633734</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="G2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="I2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803336</v>
       </c>
       <c r="J2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803344</v>
       </c>
       <c r="L2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="P2" t="n">
         <v>625646.495580334</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.898095428667148e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26450,16 +26450,16 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-190484.3187083537</v>
       </c>
       <c r="C6" t="n">
-        <v>399483.560506191</v>
+        <v>399483.5605061912</v>
       </c>
       <c r="D6" t="n">
-        <v>399483.560506191</v>
+        <v>399483.5605061911</v>
       </c>
       <c r="E6" t="n">
-        <v>-20804.41239758115</v>
+        <v>-21779.00365730253</v>
       </c>
       <c r="F6" t="n">
-        <v>504355.6240793157</v>
+        <v>503381.0328195938</v>
       </c>
       <c r="G6" t="n">
-        <v>504355.6240793146</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="H6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195936</v>
       </c>
       <c r="I6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195931</v>
       </c>
       <c r="J6" t="n">
-        <v>327932.4048867222</v>
+        <v>326957.8136270005</v>
       </c>
       <c r="K6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195938</v>
       </c>
       <c r="L6" t="n">
-        <v>504355.6240793152</v>
+        <v>503381.0328195934</v>
       </c>
       <c r="M6" t="n">
-        <v>369554.608845478</v>
+        <v>368580.0175857564</v>
       </c>
       <c r="N6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195938</v>
       </c>
       <c r="O6" t="n">
-        <v>504355.6240793155</v>
+        <v>503381.0328195933</v>
       </c>
       <c r="P6" t="n">
-        <v>504355.6240793151</v>
+        <v>503381.0328195933</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26804,13 +26804,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26822,10 +26822,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>221.0312760636892</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>7.122604420824388</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>146.0852802288193</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>26.58675696913119</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>23.62333149860831</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>38.56738704264203</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>186.8443170414104</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>321.4685793061306</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>240.7552248793895</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,22 +27903,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>140.2683608148411</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.169471064289421e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,43 +31837,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,37 +32238,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>460.8305752819975</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377842</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>479.9728913332272</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>401.6619767334865</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>479.9728913332275</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>479.9728913332275</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>235.2160519941552</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37159,16 +37159,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>352.3285462419043</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37560,7 +37560,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109142</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L39" t="n">
-        <v>532.8670379385733</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>702.5357390731098</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37876,10 +37876,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>460.8406984080775</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2893460.821759155</v>
+        <v>2898400.084608186</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>285.6410909649533</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>167.2931083881471</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.9978963829636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>359.1105101648723</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>53.33946764031355</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>101.780687729549</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.77238941128158</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.60408762095418</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113179</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.8522523094039</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>5.459896748108878</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.562624396424917</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404428</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>137.93704299063</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.6211591710424</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>118.995544662309</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>495.9353123353287</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2528.166153252417</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2309.53148622448</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2309.53148622448</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1978.468598880909</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1978.468598880909</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1978.468598880909</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.0450565669176</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>386.0450565669176</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.0450565669176</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402.0066065949742</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C5" t="n">
-        <v>402.0066065949742</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2643.270840876492</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2643.270840876492</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2643.270840876492</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2389.509055514583</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2058.446168171012</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1705.677512900898</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>1332.211754639818</v>
       </c>
       <c r="Y5" t="n">
-        <v>764.7444956504007</v>
+        <v>942.0724226640064</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>485.5200852635876</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>854.4182661194303</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>685.4820831915234</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3654437791877</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1004.352574466701</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.21084526296</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X13" t="n">
-        <v>1075.21084526296</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y13" t="n">
-        <v>854.4182661194303</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,13 +5278,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>462.7283310300498</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365139</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880508</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
         <v>2016.139981183168</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>874.927113122792</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169051</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799445</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.8359039819272</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,37 +5767,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5913,13 +5913,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,22 +5928,22 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
         <v>614.6238123952637</v>
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,28 +5974,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>413.0432218861031</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1359.585924102721</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1359.585924102721</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1104.901435896834</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>815.4842658598729</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>815.4842658598729</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y25" t="n">
-        <v>594.6916867163428</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>221.1079791745888</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6469,7 +6469,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,22 +6542,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6648,19 +6648,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6688,16 +6688,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
@@ -6724,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6900,10 +6900,10 @@
         <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7180,7 +7180,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7253,19 +7253,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555215</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
         <v>1808.163466324677</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>554.8095831774258</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>265.3924131404652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>199.7396287231155</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>176.717654749845</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>96.0374492781458</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>24.58171033716525</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>246.6777465757191</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>160.9309440669527</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24417,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>83.61051806775924</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>43.84158962621761</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>30.90698584635157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.142098661519</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633734</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771470.9653633735</v>
+        <v>771470.9653633736</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771470.9653633736</v>
+        <v>771470.9653633735</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.495580334</v>
       </c>
       <c r="G2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="H2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.4955803342</v>
       </c>
-      <c r="I2" t="n">
-        <v>625646.4955803336</v>
-      </c>
       <c r="J2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
         <v>625646.4955803343</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
+        <v>29303.54555230233</v>
+      </c>
+      <c r="H4" t="n">
         <v>29303.54555230232</v>
-      </c>
-      <c r="H4" t="n">
-        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-190484.3187083537</v>
+        <v>-190484.3187083536</v>
       </c>
       <c r="C6" t="n">
-        <v>399483.5605061912</v>
+        <v>399483.5605061906</v>
       </c>
       <c r="D6" t="n">
         <v>399483.5605061911</v>
       </c>
       <c r="E6" t="n">
-        <v>-21779.00365730253</v>
+        <v>-20901.87152355327</v>
       </c>
       <c r="F6" t="n">
-        <v>503381.0328195938</v>
+        <v>504258.1649533428</v>
       </c>
       <c r="G6" t="n">
-        <v>503381.0328195936</v>
+        <v>504258.1649533429</v>
       </c>
       <c r="H6" t="n">
-        <v>503381.0328195936</v>
+        <v>504258.1649533428</v>
       </c>
       <c r="I6" t="n">
-        <v>503381.0328195931</v>
+        <v>504258.1649533433</v>
       </c>
       <c r="J6" t="n">
-        <v>326957.8136270005</v>
+        <v>327834.9457607502</v>
       </c>
       <c r="K6" t="n">
-        <v>503381.0328195938</v>
+        <v>504258.164953343</v>
       </c>
       <c r="L6" t="n">
-        <v>503381.0328195934</v>
+        <v>504258.164953343</v>
       </c>
       <c r="M6" t="n">
-        <v>368580.0175857564</v>
+        <v>369457.1497195059</v>
       </c>
       <c r="N6" t="n">
-        <v>503381.0328195938</v>
+        <v>504258.1649533433</v>
       </c>
       <c r="O6" t="n">
-        <v>503381.0328195933</v>
+        <v>504258.164953343</v>
       </c>
       <c r="P6" t="n">
-        <v>503381.0328195933</v>
+        <v>504258.164953343</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>128.1430790558417</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>7.122604420824388</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1681237664917</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.58675696913119</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.62333149860831</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.138934934498145</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>26.70601316353016</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27915,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.2278925609831</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,37 +32475,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>350.3150673110547</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>327.2930933377842</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341702</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36837,7 +36837,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221117</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37399,10 +37399,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37548,7 +37548,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221117</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,7 +37636,7 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
